--- a/sequences/08_localizer.xlsx
+++ b/sequences/08_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>car</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
     <t>car/car002.png</t>
   </si>
   <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
     <t>flower/flower007.png</t>
   </si>
   <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
     <t>flower/flower000.png</t>
   </si>
   <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
   </si>
   <si>
     <t>face/face021.png</t>
   </si>
   <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
   </si>
   <si>
     <t>flower/flower038.png</t>
   </si>
   <si>
-    <t>car/car047.png</t>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
   </si>
   <si>
     <t>dog/dog032.png</t>
   </si>
   <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
   </si>
   <si>
     <t>flower/flower046.png</t>
   </si>
   <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
   </si>
   <si>
     <t>flower/flower037.png</t>
   </si>
   <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
   </si>
   <si>
     <t>flower/flower032.png</t>
   </si>
   <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
+    <t>car/car041.png</t>
   </si>
   <si>
     <t>flower/flower042.png</t>
   </si>
   <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
     <t>car/car037.png</t>
   </si>
   <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
   </si>
   <si>
     <t>flower/flower048.png</t>
   </si>
   <si>
-    <t>dog/dog059.png</t>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
   </si>
   <si>
     <t>dog/dog062.png</t>
   </si>
   <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
     <t>flower/flower055.png</t>
   </si>
   <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
   </si>
   <si>
     <t>flower/flower058.png</t>
   </si>
   <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
+    <t>dog/dog063.png</t>
   </si>
   <si>
     <t>flower/flower051.png</t>
   </si>
   <si>
-    <t>face/face054.png</t>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
   </si>
   <si>
     <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.283464574615898</v>
+        <v>1.319227645282019</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.548501209859701</v>
+        <v>1.568553297734627</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.55360686069592</v>
+        <v>1.575397624985163</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1.327821265801371</v>
+        <v>1.552784744572834</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.705896665980852</v>
+        <v>1.562695258268746</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.52476914280245</v>
+        <v>1.434075516133494</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.49289749199938</v>
+        <v>1.537921010094722</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.654803930808295</v>
+        <v>1.438629523806646</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.56944626929695</v>
+        <v>1.133064980636838</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.443149917447223</v>
+        <v>1.426775046539012</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.28299794745987</v>
+        <v>1.386013705725384</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.316385347345964</v>
+        <v>1.573541753911789</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.573537545234849</v>
+        <v>1.43252489542166</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.386468123836968</v>
+        <v>1.315968773249337</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.60828610148414</v>
+        <v>1.729714948884177</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.578440955987235</v>
+        <v>1.3954608116207</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.468195386750712</v>
+        <v>1.747815631418519</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.431724298115907</v>
+        <v>1.363754825142839</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.383491486080133</v>
+        <v>1.43729904834575</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.777351085590889</v>
+        <v>1.500833897827444</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.738985007564195</v>
+        <v>1.455340213559494</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.426420459929682</v>
+        <v>1.826382840876506</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.842007378606108</v>
+        <v>1.469096680960533</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.393338794950048</v>
+        <v>1.713044527310058</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.515186987734453</v>
+        <v>1.440715541105479</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.713871545030849</v>
+        <v>1.7527302454774</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.678571575621696</v>
+        <v>1.424039801113109</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.368671924259407</v>
+        <v>1.434407551901792</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.523601778292285</v>
+        <v>1.326175405584473</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1.803992315026864</v>
+        <v>1.568543761630161</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.717031667929746</v>
+        <v>1.369494405776391</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.74748444169334</v>
+        <v>1.367826896691283</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.447780989199283</v>
+        <v>1.632036531510934</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.521326112464207</v>
+        <v>1.363442204071096</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.373983663717641</v>
+        <v>1.430179161839795</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.366105622817674</v>
+        <v>1.41223040333539</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.414996409972171</v>
+        <v>1.687420614226404</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.643101445190443</v>
+        <v>1.515073269279331</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.337238914714596</v>
+        <v>1.306026181026255</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.224336495170743</v>
+        <v>1.381475198856946</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.489039268608133</v>
+        <v>1.306188436733708</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.26247321257951</v>
+        <v>1.887677222147495</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.230213536871462</v>
+        <v>1.437888995527729</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.445085532591733</v>
+        <v>1.729857477301213</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.504466602891699</v>
+        <v>1.297143282332922</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.398823628067211</v>
+        <v>1.619501320821666</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.188373895344801</v>
+        <v>1.377475224958747</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.772621295067418</v>
+        <v>1.415638015086163</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.538870742498008</v>
+        <v>1.46329183906217</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.529552819809731</v>
+        <v>1.824605005245771</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1.515142829591597</v>
+        <v>1.413125796795397</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.485360540039345</v>
+        <v>1.508050681127365</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.260799797813111</v>
+        <v>1.611210900694207</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.542176498417881</v>
+        <v>1.563972476495397</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.468378589058571</v>
+        <v>1.48345456133027</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1.494833065253033</v>
+        <v>1.430545205392593</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.532293395277814</v>
+        <v>1.304509306495475</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.394553206069327</v>
+        <v>1.529797643801627</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.408973326190848</v>
+        <v>1.51147653968027</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.62488333016836</v>
+        <v>1.408331346544994</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.490262888770765</v>
+        <v>1.354126273285281</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.637826235382981</v>
+        <v>1.715730207684235</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.434917882648871</v>
+        <v>1.244161566723556</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.373692809354549</v>
+        <v>1.487292180759469</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.526289831431062</v>
+        <v>1.605826292599747</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>1.512455991285523</v>
+        <v>1.459088722380577</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.718088191264223</v>
+        <v>1.571036409069993</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.593952101162108</v>
+        <v>1.574502205910918</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.380749549118303</v>
+        <v>1.531583903385744</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.156924892122379</v>
+        <v>1.498243528845234</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.486290085770963</v>
+        <v>1.539139677862652</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.562081659941843</v>
+        <v>1.357911464472167</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.218406769327601</v>
+        <v>1.334355721866897</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.401817645894998</v>
+        <v>1.730359820679765</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.405123255963064</v>
+        <v>1.344865561105064</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.36460297728284</v>
+        <v>1.437518612617935</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.844732247306767</v>
+        <v>1.276985719315839</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.516650436021912</v>
+        <v>1.55385229621402</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.531080213529438</v>
+        <v>1.423654211885453</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.611341851961883</v>
+        <v>1.647179196771514</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.446339489874962</v>
+        <v>1.472139341800883</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.789397843185177</v>
+        <v>1.535639431230635</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.391081828046265</v>
+        <v>1.500005849035157</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.404171271811681</v>
+        <v>1.336970037849755</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.473863041597734</v>
+        <v>1.382439049277405</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.508971373773877</v>
+        <v>1.402045022647964</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.496424117350831</v>
+        <v>1.434464571647521</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.669524596696184</v>
+        <v>1.720547545054874</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.7507496291933</v>
+        <v>1.545508773110838</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.638560048565681</v>
+        <v>1.49651274157173</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.14319232980057</v>
+        <v>1.422686707551084</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.868577129549877</v>
+        <v>1.510863484083425</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.309556407294513</v>
+        <v>1.629688883792687</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.393189223259351</v>
+        <v>1.262665179441616</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.431045646113176</v>
+        <v>1.586626861482531</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1.404407870204272</v>
+        <v>1.405342265934798</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.635643136069935</v>
+        <v>1.422044523863059</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.483757669891531</v>
+        <v>1.522154009906105</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.378826050263063</v>
+        <v>1.345435039478019</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.598437138051443</v>
+        <v>1.440253048713049</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.537063933180073</v>
+        <v>1.252157733081977</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.532700910596105</v>
+        <v>1.4911159049781</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.474211238229264</v>
+        <v>1.59765316300521</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.354314495820014</v>
+        <v>1.53633055674957</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.22677838748944</v>
+        <v>1.499272030107881</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.514680510561302</v>
+        <v>1.333955185659888</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.518002536241452</v>
+        <v>1.512609145008148</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.562971899322913</v>
+        <v>1.375838775523466</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.533383013282634</v>
+        <v>1.770305153911784</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.040331690167145</v>
+        <v>1.504409857986629</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.38030657326936</v>
+        <v>1.548157212296629</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.604758243403287</v>
+        <v>1.362355870848309</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.641952811587068</v>
+        <v>1.489669457456809</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.5972218541028</v>
+        <v>1.542890777855872</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>1.233473703444021</v>
+        <v>1.467011059071865</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.597249193551757</v>
+        <v>1.484556799708108</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.536448199516769</v>
+        <v>1.48463768793697</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.333602501892162</v>
+        <v>1.356619148089523</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.735495767895096</v>
+        <v>1.609737878145909</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.482443957961243</v>
+        <v>1.297290352251669</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.690363119561454</v>
+        <v>1.30050059612562</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.538563555262785</v>
+        <v>1.903003804541151</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.422664240564329</v>
+        <v>1.748461390019359</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.361423735704229</v>
+        <v>1.396802289481693</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.342230841772426</v>
+        <v>1.411651001255821</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.648597194317305</v>
+        <v>1.653236718725339</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.521885367053079</v>
+        <v>1.869705088390206</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.727001292300454</v>
+        <v>1.695689247311995</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.547532136453423</v>
+        <v>1.506042858232189</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.560087467958065</v>
+        <v>1.553385514260894</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>1.678725796986139</v>
+        <v>1.264305460524746</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="F133">
-        <v>1.481328700480985</v>
+        <v>1.742120941323367</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.738860507192575</v>
+        <v>1.539254404183841</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.361035651969332</v>
+        <v>1.35908124223476</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.48487648590971</v>
+        <v>1.517028423378095</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.450637091347964</v>
+        <v>1.598158559729936</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.518515307492249</v>
+        <v>1.577927712306859</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.397343725888683</v>
+        <v>1.543528858916757</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.400022737446934</v>
+        <v>1.576436306109392</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.611505486291864</v>
+        <v>1.489355928932985</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.640003826636293</v>
+        <v>1.511706972159306</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.658295208602315</v>
+        <v>1.184367536330293</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.517021941008571</v>
+        <v>1.467190616745019</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.604817366142731</v>
+        <v>1.637176575950333</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.485335860278268</v>
+        <v>1.534512977495953</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.44694770174655</v>
+        <v>1.378842854567223</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.463528883308949</v>
+        <v>1.230816183486567</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.597873828457687</v>
+        <v>1.499840510490688</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>1.517367424181818</v>
+        <v>1.713416268734748</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.509305833992515</v>
+        <v>1.582364437796773</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.497075812923021</v>
+        <v>1.261513168630493</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.256800319579694</v>
+        <v>1.538554620362238</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.665247421273869</v>
+        <v>1.71062563699779</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.570804402505021</v>
+        <v>1.474754857306118</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.607710134474579</v>
+        <v>1.523379780741972</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.655183201517533</v>
+        <v>1.699665491025276</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>2</v>
+        <v>1.623584842777063</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.275402338500181</v>
+        <v>1.583054911924406</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.347240176529506</v>
+        <v>1.383687162611137</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.727957456116299</v>
+        <v>1.592257535493646</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.509786788341728</v>
+        <v>1.616316374560163</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.350501765886121</v>
+        <v>1.423658085247714</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.63348916248645</v>
+        <v>1.570683865442267</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.501115364436358</v>
+        <v>1.66966771996859</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>1.473919805000361</v>
+        <v>1.324373578606507</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.562483367425392</v>
+        <v>1.51272485652333</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.571054049111313</v>
+        <v>1.425330849395733</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.743187408324827</v>
+        <v>1.231002783531321</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.415847584338827</v>
+        <v>1.499625945312813</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.379003863203194</v>
+        <v>1.384672189361178</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1.344210434199497</v>
+        <v>1.409217302008089</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.815471854164708</v>
+        <v>1.713707650180593</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.490579450761078</v>
+        <v>1.395396790986963</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.396470194451212</v>
+        <v>1.543877153330939</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.635296946766784</v>
+        <v>1.614787923195427</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.614473183047276</v>
+        <v>1.554468776212041</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.537601287317157</v>
+        <v>1.652710144892656</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.451609208546559</v>
+        <v>1.81035983318904</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.62472980113941</v>
+        <v>1.430958304216072</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="F181">
-        <v>1.520863269984248</v>
+        <v>1.607040726862651</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.436521537479162</v>
+        <v>1.555799585901134</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.539914674461313</v>
+        <v>1.573848417924292</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.616270326082963</v>
+        <v>1.432046846944782</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.470239890398581</v>
+        <v>1.413284373776335</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.47298451485524</v>
+        <v>1.620549234620597</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.45272604805861</v>
+        <v>1.566331934176898</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.398902468336931</v>
+        <v>1.555015932743136</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.542916492108295</v>
+        <v>1.863550978418129</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.504810561298586</v>
+        <v>1.617509300984389</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.573870484526265</v>
+        <v>1.450136400062699</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.60411523422904</v>
+        <v>1.570697628934669</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>1.517007389704122</v>
+        <v>1.342475493769953</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.535322591348707</v>
+        <v>1.519027520010681</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.492861632404958</v>
+        <v>1.622830568906173</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.334659900410303</v>
+        <v>1.409423807325453</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.541799454208793</v>
+        <v>1.464241126703972</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.642407402952006</v>
+        <v>1.436038225455015</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>1.45689477953985</v>
+        <v>1.333220452497615</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.657266914341096</v>
+        <v>1.306612760630022</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.526987537005014</v>
+        <v>1.311659725177549</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.539417912160712</v>
+        <v>1.359889394079034</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.761457183906178</v>
+        <v>1.475733398932481</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.475951789275481</v>
+        <v>1.453849472033199</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.671740512700873</v>
+        <v>1.352347827775063</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.751607617750306</v>
+        <v>1.609787478773035</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.265295815729703</v>
+        <v>1.316400439269449</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.604452858511316</v>
+        <v>1.442249673833101</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.540959472976865</v>
+        <v>1.498877740347163</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.311358268109221</v>
+        <v>1.373520878396008</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.557070767312741</v>
+        <v>1.502514939326002</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.397588823710368</v>
+        <v>1.501905364897816</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.455640698611636</v>
+        <v>1.246093383774209</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.424989641770687</v>
+        <v>1.242100186958379</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.495539881347191</v>
+        <v>1.761591632862138</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.310826604591465</v>
+        <v>1.593990683164507</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.589774755302913</v>
+        <v>1.487065293395177</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.344383387840191</v>
+        <v>1.528958249300354</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.418956717269387</v>
+        <v>1.381722625585574</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.504086073568378</v>
+        <v>1.547043217378479</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.766765259699173</v>
+        <v>1.455335442433062</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.487038147362685</v>
+        <v>1.520094807607287</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.606298041349916</v>
+        <v>1.445322232981835</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.395936321048457</v>
+        <v>1.309483174781146</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.356250878360618</v>
+        <v>1.57012570014409</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="F226">
-        <v>1.397267174924303</v>
+        <v>1.592126077002449</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.590584461080128</v>
+        <v>1.714877518515469</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.246656804330345</v>
+        <v>1.33413895465381</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.578829227957284</v>
+        <v>1.665775383061078</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.294266026737974</v>
+        <v>1.192061736883531</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.856419450681752</v>
+        <v>1.544231025927767</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.395843942965585</v>
+        <v>1.413147219750329</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.360052931841394</v>
+        <v>1.507720472340109</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.48193170160253</v>
+        <v>1.947073412306826</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.342508547771636</v>
+        <v>1.155286857657168</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.350988943173077</v>
+        <v>1.488044086347396</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.303245137282318</v>
+        <v>1.435573264043019</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.518106336306076</v>
+        <v>1.32903202459327</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.383704669758899</v>
+        <v>1.469366136641568</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.309285703702987</v>
+        <v>1.493680937474901</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.656593505315467</v>
+        <v>1.593090258838601</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.533642604389939</v>
+        <v>1.605516970243102</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.395421200964367</v>
+        <v>1.790474217963568</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.448045247420761</v>
+        <v>1.432982017810065</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.577095754339953</v>
+        <v>1.427117717225996</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.204572092632842</v>
+        <v>1.458712493443173</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.514071924755257</v>
+        <v>1.375061853180255</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.593971541403633</v>
+        <v>1.432233004558151</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.283490368540688</v>
+        <v>1.514666198335481</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250">
-        <v>1.716494748908702</v>
+        <v>1.472713576132013</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.086777313117163</v>
+        <v>1.436000123044513</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.533074849666211</v>
+        <v>1.372731595046211</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.397894566219149</v>
+        <v>1.646951614531073</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.515336216479029</v>
+        <v>1.453269890350803</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.504635758421543</v>
+        <v>1.410532243922691</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.493746334334264</v>
+        <v>1.669347141001741</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.395941568095729</v>
+        <v>1.550382197476438</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/08_localizer.xlsx
+++ b/sequences/08_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.319227645282019</v>
+        <v>1.364291506081459</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.568553297734627</v>
+        <v>1.299496411747575</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.575397624985163</v>
+        <v>1.492583057249648</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.552784744572834</v>
+        <v>1.462705900865741</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.562695258268746</v>
+        <v>1.678032781515888</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.434075516133494</v>
+        <v>1.536606335982127</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.537921010094722</v>
+        <v>1.26065678567743</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.438629523806646</v>
+        <v>1.27957746916458</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.133064980636838</v>
+        <v>1.275777816038424</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.426775046539012</v>
+        <v>1.649335028466617</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.386013705725384</v>
+        <v>1.413524342018424</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.573541753911789</v>
+        <v>1.172118149605095</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.43252489542166</v>
+        <v>1.732891541723952</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.315968773249337</v>
+        <v>1.558001323171984</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.729714948884177</v>
+        <v>1.338383991811848</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.3954608116207</v>
+        <v>1.375763906183339</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.747815631418519</v>
+        <v>1.563860082887466</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.363754825142839</v>
+        <v>1.599843533551564</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.43729904834575</v>
+        <v>1.740394599821481</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.500833897827444</v>
+        <v>1.286903372411092</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.455340213559494</v>
+        <v>1.779146276727788</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.826382840876506</v>
+        <v>1.419837480615606</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.469096680960533</v>
+        <v>1.47564800962046</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.713044527310058</v>
+        <v>1.602459024003909</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.440715541105479</v>
+        <v>1.48326730409079</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.7527302454774</v>
+        <v>1.323434457928672</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.424039801113109</v>
+        <v>1.248835881098172</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.434407551901792</v>
+        <v>1.548083986218389</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>1.326175405584473</v>
+        <v>1.471162109314491</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1.568543761630161</v>
+        <v>1.559656371818648</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.369494405776391</v>
+        <v>1.650368641446658</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.367826896691283</v>
+        <v>1.437092611221877</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.632036531510934</v>
+        <v>1.645874533041295</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.363442204071096</v>
+        <v>1.677990533214406</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.430179161839795</v>
+        <v>1.534432982210272</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.41223040333539</v>
+        <v>1.622163128362862</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.687420614226404</v>
+        <v>1.439040547592317</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.515073269279331</v>
+        <v>1.450408437125885</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.306026181026255</v>
+        <v>1.44882384838877</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.381475198856946</v>
+        <v>1.545143916815519</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.306188436733708</v>
+        <v>1.407756956569766</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.887677222147495</v>
+        <v>1.553896140741501</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.437888995527729</v>
+        <v>1.492226756130706</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.729857477301213</v>
+        <v>1.325884641205976</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.297143282332922</v>
+        <v>1.650381022952814</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.619501320821666</v>
+        <v>1.428711356542439</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1.377475224958747</v>
+        <v>1.892496968544121</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.415638015086163</v>
+        <v>1.522917466342207</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.46329183906217</v>
+        <v>1.417579869202796</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.824605005245771</v>
+        <v>1.791041029424236</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.413125796795397</v>
+        <v>1.546473763205599</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.508050681127365</v>
+        <v>1.438551811658865</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.611210900694207</v>
+        <v>1.35430988623164</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.563972476495397</v>
+        <v>1.757092414944722</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.48345456133027</v>
+        <v>1.637495133628351</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.430545205392593</v>
+        <v>1.586758244282585</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.304509306495475</v>
+        <v>1.591823629832388</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.529797643801627</v>
+        <v>1.589129589232932</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.51147653968027</v>
+        <v>1.511172821869612</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.408331346544994</v>
+        <v>1.485267348170567</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.354126273285281</v>
+        <v>1.420202258386742</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.715730207684235</v>
+        <v>1.329596753170239</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>1.244161566723556</v>
+        <v>1.482107981848526</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.487292180759469</v>
+        <v>1.592774171482256</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.605826292599747</v>
+        <v>1.660571045003193</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.459088722380577</v>
+        <v>1.541250351628658</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.571036409069993</v>
+        <v>1.34017098253786</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.574502205910918</v>
+        <v>1.377709339409304</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.531583903385744</v>
+        <v>1.255784538488089</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.498243528845234</v>
+        <v>1.483127563666931</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.539139677862652</v>
+        <v>1.634831074920032</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.357911464472167</v>
+        <v>1.360908645596642</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.334355721866897</v>
+        <v>1.587002291677232</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.730359820679765</v>
+        <v>1.757993059444341</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.344865561105064</v>
+        <v>1.569342235843911</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.437518612617935</v>
+        <v>1.441826847702449</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.276985719315839</v>
+        <v>1.605412128504694</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.55385229621402</v>
+        <v>1.632539422200408</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.423654211885453</v>
+        <v>1.609459035252588</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.647179196771514</v>
+        <v>1.448314488303155</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.472139341800883</v>
+        <v>1.231359945020581</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.535639431230635</v>
+        <v>1.444423197135837</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>1.500005849035157</v>
+        <v>1.316558113843992</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.336970037849755</v>
+        <v>1.612044048841737</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.382439049277405</v>
+        <v>1.450288597777256</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.402045022647964</v>
+        <v>1.454697829074186</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.434464571647521</v>
+        <v>1.447052326147401</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.720547545054874</v>
+        <v>1.53621592029869</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.545508773110838</v>
+        <v>1.689310076405887</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.49651274157173</v>
+        <v>1.473611413985051</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.422686707551084</v>
+        <v>1.547772755822886</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.510863484083425</v>
+        <v>1.414062476529663</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.629688883792687</v>
+        <v>1.376156640238923</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.262665179441616</v>
+        <v>1.539254942929233</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.586626861482531</v>
+        <v>1.384472004677846</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>1.405342265934798</v>
+        <v>1.167730402941704</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.422044523863059</v>
+        <v>1.586372385666482</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.522154009906105</v>
+        <v>1.504853824765902</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.345435039478019</v>
+        <v>1.497109131319507</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.440253048713049</v>
+        <v>1.708881016543214</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.252157733081977</v>
+        <v>1.914706279113821</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.4911159049781</v>
+        <v>1.672177463408748</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.59765316300521</v>
+        <v>1.428273359129081</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.53633055674957</v>
+        <v>1.657454590525377</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.499272030107881</v>
+        <v>1.534453645169254</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.333955185659888</v>
+        <v>1.567462614565239</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.512609145008148</v>
+        <v>1.589544570758544</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.375838775523466</v>
+        <v>1.515439102331917</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.770305153911784</v>
+        <v>1.461351974634817</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.504409857986629</v>
+        <v>1.475319973406259</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.548157212296629</v>
+        <v>1.52867912814166</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.362355870848309</v>
+        <v>1.52660809719086</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.489669457456809</v>
+        <v>1.612266828006775</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.542890777855872</v>
+        <v>1.443773985034733</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.467011059071865</v>
+        <v>1.408062178383881</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.484556799708108</v>
+        <v>1.032887851039261</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.48463768793697</v>
+        <v>1.734418291302682</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.356619148089523</v>
+        <v>1.630928059104315</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.609737878145909</v>
+        <v>1.44142728947305</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.297290352251669</v>
+        <v>1.409212239665628</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.30050059612562</v>
+        <v>1.316973621602221</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.903003804541151</v>
+        <v>1.721164453275901</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.748461390019359</v>
+        <v>1.363432932861857</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.396802289481693</v>
+        <v>1.750690634848468</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.411651001255821</v>
+        <v>1.57176980581957</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.653236718725339</v>
+        <v>1.599060846675217</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.869705088390206</v>
+        <v>1.629535679068054</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.695689247311995</v>
+        <v>1.466033786645973</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.506042858232189</v>
+        <v>1.466805568002344</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.553385514260894</v>
+        <v>1.789055672650746</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.264305460524746</v>
+        <v>1.348758298386066</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.742120941323367</v>
+        <v>1.441586876680392</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.539254404183841</v>
+        <v>1.276751803664367</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.35908124223476</v>
+        <v>1.443031509095294</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.517028423378095</v>
+        <v>1.550524416138889</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1.598158559729936</v>
+        <v>1.404481213128147</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.577927712306859</v>
+        <v>1.446271016490935</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.543528858916757</v>
+        <v>1.612382069226503</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.576436306109392</v>
+        <v>1.630998183539163</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.489355928932985</v>
+        <v>1.848113352113061</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.511706972159306</v>
+        <v>1.546949074490825</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.184367536330293</v>
+        <v>1.491801552011769</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.467190616745019</v>
+        <v>1.427799064983415</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.637176575950333</v>
+        <v>1.765211607046764</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.534512977495953</v>
+        <v>1.571749631135456</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.378842854567223</v>
+        <v>1.237015611784217</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.230816183486567</v>
+        <v>1.733508473896909</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.499840510490688</v>
+        <v>1.458548686344315</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.713416268734748</v>
+        <v>1.338680024126362</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.582364437796773</v>
+        <v>1.456710932340065</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.261513168630493</v>
+        <v>1.474013577224492</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.538554620362238</v>
+        <v>1.346196324620296</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.71062563699779</v>
+        <v>1.348747586661291</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.474754857306118</v>
+        <v>1.627841813000582</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.523379780741972</v>
+        <v>1.550818324322024</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.699665491025276</v>
+        <v>1.6727500307874</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.623584842777063</v>
+        <v>1.482988130990281</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.583054911924406</v>
+        <v>1.152021596579321</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.383687162611137</v>
+        <v>1.619935075249563</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.592257535493646</v>
+        <v>1.683735355214371</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.616316374560163</v>
+        <v>1.197932403571421</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.423658085247714</v>
+        <v>1.526306755347149</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.570683865442267</v>
+        <v>1.600774402246294</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.66966771996859</v>
+        <v>1.370432989115084</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1.324373578606507</v>
+        <v>1.498012676261747</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.51272485652333</v>
+        <v>1.665365476833341</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.425330849395733</v>
+        <v>1.401691937467471</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.231002783531321</v>
+        <v>1.662327790291833</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.499625945312813</v>
+        <v>1.52568457117037</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.384672189361178</v>
+        <v>1.513660584558441</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F172">
-        <v>1.409217302008089</v>
+        <v>1.478504146277783</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.713707650180593</v>
+        <v>1.346288870351164</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.395396790986963</v>
+        <v>1.7721749844076</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.543877153330939</v>
+        <v>1.658959725256573</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.614787923195427</v>
+        <v>1.548165985194993</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.554468776212041</v>
+        <v>1.318962398803597</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.652710144892656</v>
+        <v>1.453072492724194</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.81035983318904</v>
+        <v>1.245506370736303</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.430958304216072</v>
+        <v>1.323807333716292</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1.607040726862651</v>
+        <v>1.507045197475789</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.555799585901134</v>
+        <v>1.399273842221469</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.573848417924292</v>
+        <v>1.555084069940856</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.432046846944782</v>
+        <v>1.57588983133087</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>1.413284373776335</v>
+        <v>1.406405723718931</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.620549234620597</v>
+        <v>1.105975448029758</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.566331934176898</v>
+        <v>1.39326684617192</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.555015932743136</v>
+        <v>1.593105508266489</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.863550978418129</v>
+        <v>1.76466659600122</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.617509300984389</v>
+        <v>1.362584005483606</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.450136400062699</v>
+        <v>1.402843945777871</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.570697628934669</v>
+        <v>1.22333036622074</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.342475493769953</v>
+        <v>1.5859139852795</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.519027520010681</v>
+        <v>1.388188752284869</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.622830568906173</v>
+        <v>1.181179808016726</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.409423807325453</v>
+        <v>1.640554724933858</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.464241126703972</v>
+        <v>1.421882727361766</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.436038225455015</v>
+        <v>1.585575343699177</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.333220452497615</v>
+        <v>1.591886886558864</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.306612760630022</v>
+        <v>1.291036519929898</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.311659725177549</v>
+        <v>1.561296790976875</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.359889394079034</v>
+        <v>1.222058155804514</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.475733398932481</v>
+        <v>1.476408068111779</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.453849472033199</v>
+        <v>1.45767501416275</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
-        <v>1.352347827775063</v>
+        <v>1.496666709205979</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.609787478773035</v>
+        <v>1.506727494404719</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.316400439269449</v>
+        <v>1.645390240590311</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.442249673833101</v>
+        <v>1.3215012139638</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.498877740347163</v>
+        <v>1.519074705695658</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.373520878396008</v>
+        <v>1.476210677075046</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.502514939326002</v>
+        <v>1.359054300003002</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.501905364897816</v>
+        <v>1.453102160299891</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.246093383774209</v>
+        <v>1.686671795366125</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.242100186958379</v>
+        <v>1.340891814630596</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.761591632862138</v>
+        <v>1.317767206826518</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.593990683164507</v>
+        <v>1.580049732273106</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.487065293395177</v>
+        <v>1.351267895414326</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.528958249300354</v>
+        <v>1.456441997444477</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.381722625585574</v>
+        <v>1.573354009509043</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.547043217378479</v>
+        <v>1.502154634677006</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F221">
-        <v>1.455335442433062</v>
+        <v>1.821983120499328</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.520094807607287</v>
+        <v>1.41334384216822</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.445322232981835</v>
+        <v>1.511250938695121</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.309483174781146</v>
+        <v>1.620681281780047</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.57012570014409</v>
+        <v>1.669941675444802</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="F226">
-        <v>1.592126077002449</v>
+        <v>1.663432171312582</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.714877518515469</v>
+        <v>1.528956182767549</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.33413895465381</v>
+        <v>1.22902554734049</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.665775383061078</v>
+        <v>1.326583003032852</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.192061736883531</v>
+        <v>1.417898796669313</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.544231025927767</v>
+        <v>1.447808232320617</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.413147219750329</v>
+        <v>1.41256438850916</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.507720472340109</v>
+        <v>1.566651675379948</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.947073412306826</v>
+        <v>1.353899320854894</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.155286857657168</v>
+        <v>1.705317519670348</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.488044086347396</v>
+        <v>1.227638109990247</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.435573264043019</v>
+        <v>1.501734763888878</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.32903202459327</v>
+        <v>1.382080580696738</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.469366136641568</v>
+        <v>1.773078781575288</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.493680937474901</v>
+        <v>1.506059660264013</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.593090258838601</v>
+        <v>1.422475368361223</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.605516970243102</v>
+        <v>1.385533233079595</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.790474217963568</v>
+        <v>1.573010541702619</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.432982017810065</v>
+        <v>1.557167076778505</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.427117717225996</v>
+        <v>1.185862542231646</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>1.458712493443173</v>
+        <v>1.453233860096954</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.375061853180255</v>
+        <v>1.53876273897492</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.432233004558151</v>
+        <v>1.687873458274</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.514666198335481</v>
+        <v>1.77047134530534</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="F250">
-        <v>1.472713576132013</v>
+        <v>1.702964784356758</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.436000123044513</v>
+        <v>1.398143894843812</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.372731595046211</v>
+        <v>1.476385268929761</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.646951614531073</v>
+        <v>1.354022962434353</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.453269890350803</v>
+        <v>1.649553991112626</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.410532243922691</v>
+        <v>1.37835129754849</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.669347141001741</v>
+        <v>1.822165187804154</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.550382197476438</v>
+        <v>1.428937073910823</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/08_localizer.xlsx
+++ b/sequences/08_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>face</t>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
   </si>
   <si>
     <t>dog/dog039.jpg</t>
   </si>
   <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
     <t>house/house034.jpg</t>
   </si>
   <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
     <t>house/house043.jpg</t>
   </si>
   <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
+    <t>dog/dog033.jpg</t>
   </si>
   <si>
     <t>flower/flower047.jpg</t>
   </si>
   <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
     <t>face/face035.jpg</t>
   </si>
   <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
   </si>
   <si>
     <t>face/face049.jpg</t>
   </si>
   <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
     <t>face/face062.jpg</t>
   </si>
   <si>
-    <t>house/house049.jpg</t>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
   </si>
   <si>
     <t>house/house051.jpg</t>
   </si>
   <si>
-    <t>dog/dog057.jpg</t>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
   </si>
   <si>
     <t>face/face058.jpg</t>
   </si>
   <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
+    <t>dog/dog050.jpg</t>
   </si>
   <si>
     <t>flower/flower053.jpg</t>
   </si>
   <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
   </si>
   <si>
     <t>house/house064.jpg</t>
   </si>
   <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
   </si>
   <si>
     <t>dog/dog075.jpg</t>
   </si>
   <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
   </si>
   <si>
     <t>face/face093.jpg</t>
   </si>
   <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
     <t>flower/flower091.jpg</t>
   </si>
   <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
     <t>face/face084.jpg</t>
   </si>
   <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
     <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.364291506081459</v>
+        <v>1.56028857639571</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.299496411747575</v>
+        <v>1.55539929224606</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.492583057249648</v>
+        <v>1.492347049921739</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.462705900865741</v>
+        <v>1.533601626996793</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.678032781515888</v>
+        <v>1.284832937943597</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.536606335982127</v>
+        <v>1.422778662946274</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.26065678567743</v>
+        <v>1.653167627079946</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.27957746916458</v>
+        <v>1.613203335946863</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.275777816038424</v>
+        <v>1.373690243651115</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.649335028466617</v>
+        <v>1.418476941431648</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.413524342018424</v>
+        <v>1.610112260438688</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.172118149605095</v>
+        <v>1.622507626123963</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.732891541723952</v>
+        <v>1.241739476896874</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1.558001323171984</v>
+        <v>1.454178518391932</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.338383991811848</v>
+        <v>1.471795794996599</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.375763906183339</v>
+        <v>1.406708512010824</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.563860082887466</v>
+        <v>1.532418596193862</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.599843533551564</v>
+        <v>1.63249068629557</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.740394599821481</v>
+        <v>1.291277964590604</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.286903372411092</v>
+        <v>1.444341277558367</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.779146276727788</v>
+        <v>1.604111235395334</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.419837480615606</v>
+        <v>1.378927919631913</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.47564800962046</v>
+        <v>1.346690910202696</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.602459024003909</v>
+        <v>1.462713926368062</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.48326730409079</v>
+        <v>1.484803402631929</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.323434457928672</v>
+        <v>1.670331167183723</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.248835881098172</v>
+        <v>1.577119783958654</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.548083986218389</v>
+        <v>1.349362433344503</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.471162109314491</v>
+        <v>1.545390279157496</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.559656371818648</v>
+        <v>1.579995732445776</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.650368641446658</v>
+        <v>1.601770819481726</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.437092611221877</v>
+        <v>1.503467479357233</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.645874533041295</v>
+        <v>1.180285628879011</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.677990533214406</v>
+        <v>1.510373416632225</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.534432982210272</v>
+        <v>1.607210172891455</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.622163128362862</v>
+        <v>1.522883372403717</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.439040547592317</v>
+        <v>1.581987862415711</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.450408437125885</v>
+        <v>1.578607592183272</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.44882384838877</v>
+        <v>1.356314494980753</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.545143916815519</v>
+        <v>1.417148060297894</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.407756956569766</v>
+        <v>1.19879228329829</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.553896140741501</v>
+        <v>1.241277530366887</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.492226756130706</v>
+        <v>1.660597805046521</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.325884641205976</v>
+        <v>1.572521997973983</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.650381022952814</v>
+        <v>1.495723160814326</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.428711356542439</v>
+        <v>1.383379485620654</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.892496968544121</v>
+        <v>1.558299233410065</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.522917466342207</v>
+        <v>1.36953469088144</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.417579869202796</v>
+        <v>1.637183004635794</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.791041029424236</v>
+        <v>1.714011507464275</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.546473763205599</v>
+        <v>1.590916587627938</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.438551811658865</v>
+        <v>1.282450162160913</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.35430988623164</v>
+        <v>1.613228847230321</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.757092414944722</v>
+        <v>1.680217011334241</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.637495133628351</v>
+        <v>1.536033228691177</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>1.586758244282585</v>
+        <v>1.266061681534667</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.591823629832388</v>
+        <v>1.275374071154597</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.589129589232932</v>
+        <v>1.356496695994152</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.511172821869612</v>
+        <v>1.586518311743567</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.485267348170567</v>
+        <v>1.831324712616235</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>1.420202258386742</v>
+        <v>1.416722536729559</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.329596753170239</v>
+        <v>1.387415898598039</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.482107981848526</v>
+        <v>1.478877868726068</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.592774171482256</v>
+        <v>1.494748898167195</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.660571045003193</v>
+        <v>1.251173360579319</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.541250351628658</v>
+        <v>1.513701452503118</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.34017098253786</v>
+        <v>1.434697241685704</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <v>1.377709339409304</v>
+        <v>1.479636433573425</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.255784538488089</v>
+        <v>1.575312235545873</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.483127563666931</v>
+        <v>1.645500626801489</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.634831074920032</v>
+        <v>1.455725089109979</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.360908645596642</v>
+        <v>1.529232286209741</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.587002291677232</v>
+        <v>1.591998921065558</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.757993059444341</v>
+        <v>1.339791275065552</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.569342235843911</v>
+        <v>1.516123797312796</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.441826847702449</v>
+        <v>1.64046736139419</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.605412128504694</v>
+        <v>1.202270808750453</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.632539422200408</v>
+        <v>1.363654433902306</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.609459035252588</v>
+        <v>1.57505149155799</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.448314488303155</v>
+        <v>1.406772572055158</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.231359945020581</v>
+        <v>1.389105701168279</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.444423197135837</v>
+        <v>1.423564123555294</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.316558113843992</v>
+        <v>1.616692382934912</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.612044048841737</v>
+        <v>1.397007322512914</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.450288597777256</v>
+        <v>1.531132263477516</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.454697829074186</v>
+        <v>1.43400047899155</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.447052326147401</v>
+        <v>1.837534232526796</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.53621592029869</v>
+        <v>1.367480706612333</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.689310076405887</v>
+        <v>1.137995315317228</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.473611413985051</v>
+        <v>1.446116910511359</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.547772755822886</v>
+        <v>1.316098071255271</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.414062476529663</v>
+        <v>1.619637025567914</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.376156640238923</v>
+        <v>1.584831726340676</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.539254942929233</v>
+        <v>1.464497558200744</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.384472004677846</v>
+        <v>1.843849549084952</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.167730402941704</v>
+        <v>1.444949283240401</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.586372385666482</v>
+        <v>1.564854542687572</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>1.504853824765902</v>
+        <v>1.287153371666567</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.497109131319507</v>
+        <v>1.410445659106641</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.708881016543214</v>
+        <v>1.492190324134181</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.914706279113821</v>
+        <v>1.435171852044711</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.672177463408748</v>
+        <v>1.529543273212403</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.428273359129081</v>
+        <v>1.619436993780157</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.657454590525377</v>
+        <v>1.222967049470553</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.534453645169254</v>
+        <v>1.552195887471965</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.567462614565239</v>
+        <v>1.630522835580344</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.589544570758544</v>
+        <v>1.51715376316599</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F109">
-        <v>1.515439102331917</v>
+        <v>1.527141508594753</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.461351974634817</v>
+        <v>1.266417631779537</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.475319973406259</v>
+        <v>1.370304071841159</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.52867912814166</v>
+        <v>1.762873665532617</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.52660809719086</v>
+        <v>1.424210316221097</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.612266828006775</v>
+        <v>1.651421021057927</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.443773985034733</v>
+        <v>1.312558313095433</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.408062178383881</v>
+        <v>1.745045765008821</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.032887851039261</v>
+        <v>1.576729245248728</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.734418291302682</v>
+        <v>1.496683787127601</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.630928059104315</v>
+        <v>1.291762251215544</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.44142728947305</v>
+        <v>1.562389630645262</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.409212239665628</v>
+        <v>1.477830403008316</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.316973621602221</v>
+        <v>1.634102661424897</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.721164453275901</v>
+        <v>1.486780865040198</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.363432932861857</v>
+        <v>1.456518457148732</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.750690634848468</v>
+        <v>1.606738468313764</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.57176980581957</v>
+        <v>1.713624728387116</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.599060846675217</v>
+        <v>1.295904294047357</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.629535679068054</v>
+        <v>1.842789019539336</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.466033786645973</v>
+        <v>1.479573005510472</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.466805568002344</v>
+        <v>1.443364937981549</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.789055672650746</v>
+        <v>1.669392771379783</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.348758298386066</v>
+        <v>1.365903190307921</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.441586876680392</v>
+        <v>1.362416145411195</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.276751803664367</v>
+        <v>1.410982121586709</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1.443031509095294</v>
+        <v>1.444984923221505</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.550524416138889</v>
+        <v>1.598215009416709</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.404481213128147</v>
+        <v>1.454174818607396</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="F138">
-        <v>1.446271016490935</v>
+        <v>1.525694241539639</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.612382069226503</v>
+        <v>1.820719598284248</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="F140">
-        <v>1.630998183539163</v>
+        <v>1.875914642465235</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.848113352113061</v>
+        <v>1.425440391155986</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.546949074490825</v>
+        <v>1.682294792678436</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.491801552011769</v>
+        <v>1.590939077863693</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.427799064983415</v>
+        <v>1.142982210737683</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.765211607046764</v>
+        <v>1.306822184637554</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.571749631135456</v>
+        <v>1.187333337325768</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.237015611784217</v>
+        <v>1.655892440047576</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.733508473896909</v>
+        <v>1.460418692011644</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.458548686344315</v>
+        <v>1.257133875625367</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.338680024126362</v>
+        <v>1.471904138292905</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.456710932340065</v>
+        <v>1.335602270466742</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.474013577224492</v>
+        <v>1.456137837522236</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.346196324620296</v>
+        <v>1.660194526035792</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.348747586661291</v>
+        <v>1.568350875803459</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.627841813000582</v>
+        <v>1.591693812858438</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1.550818324322024</v>
+        <v>1.284059312837089</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.6727500307874</v>
+        <v>1.384500744942058</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.482988130990281</v>
+        <v>1.486343407091039</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.152021596579321</v>
+        <v>1.638323993347695</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.619935075249563</v>
+        <v>1.588138260751337</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.683735355214371</v>
+        <v>1.505601424801486</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.197932403571421</v>
+        <v>1.226445152439743</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.526306755347149</v>
+        <v>1.325870463713755</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.600774402246294</v>
+        <v>1.540568510278727</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.370432989115084</v>
+        <v>1.588844142337724</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.498012676261747</v>
+        <v>1.23180307637999</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.665365476833341</v>
+        <v>1.486555374077965</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.401691937467471</v>
+        <v>1.214924606948549</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.662327790291833</v>
+        <v>1.654025500062431</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.52568457117037</v>
+        <v>1.850395516725957</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.513660584558441</v>
+        <v>1.493751607427422</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1.478504146277783</v>
+        <v>1.239626845162341</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.346288870351164</v>
+        <v>1.595140874325886</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.7721749844076</v>
+        <v>1.522644130038393</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.658959725256573</v>
+        <v>1.528635767027417</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.548165985194993</v>
+        <v>1.560686188043689</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.318962398803597</v>
+        <v>1.7519789329143</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.453072492724194</v>
+        <v>1.349850362428604</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.245506370736303</v>
+        <v>1.613737415789808</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.323807333716292</v>
+        <v>1.675885567319186</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.507045197475789</v>
+        <v>1.369140337838013</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.399273842221469</v>
+        <v>1.557171798499639</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.555084069940856</v>
+        <v>1.632550488528322</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.57588983133087</v>
+        <v>1.482657097529546</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>1.406405723718931</v>
+        <v>1.19408533192497</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.105975448029758</v>
+        <v>1.633120020424042</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.39326684617192</v>
+        <v>1.476095856076785</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.593105508266489</v>
+        <v>1.558454370290435</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.76466659600122</v>
+        <v>1.333689710684884</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.362584005483606</v>
+        <v>1.611810265797252</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.402843945777871</v>
+        <v>1.725255745046476</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.22333036622074</v>
+        <v>1.576222467307401</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.5859139852795</v>
+        <v>1.391427209827075</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.388188752284869</v>
+        <v>1.400400682588883</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.181179808016726</v>
+        <v>1.413501287703759</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.640554724933858</v>
+        <v>1.739593114403851</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="F197">
-        <v>1.421882727361766</v>
+        <v>1.66403825225993</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.585575343699177</v>
+        <v>1.640356352913803</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.591886886558864</v>
+        <v>1.584546015976917</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.291036519929898</v>
+        <v>1.214391601057714</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.561296790976875</v>
+        <v>1.581638254535836</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.222058155804514</v>
+        <v>1.573353682882957</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.476408068111779</v>
+        <v>1.186281506058343</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.45767501416275</v>
+        <v>1.324844464623428</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="F205">
-        <v>1.496666709205979</v>
+        <v>1.357067984019652</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.506727494404719</v>
+        <v>1.348643631672937</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.645390240590311</v>
+        <v>1.627965662541102</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.3215012139638</v>
+        <v>1.597418094692766</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.519074705695658</v>
+        <v>1.440904234106812</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.476210677075046</v>
+        <v>1.629654610009375</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.359054300003002</v>
+        <v>1.647739242868161</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.453102160299891</v>
+        <v>1.418256035609354</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.686671795366125</v>
+        <v>1.497136033029944</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.340891814630596</v>
+        <v>1.668355490849762</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.317767206826518</v>
+        <v>1.456245018596806</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.580049732273106</v>
+        <v>1.53124356976173</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.351267895414326</v>
+        <v>1.560009678865689</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.456441997444477</v>
+        <v>1.331775393544116</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.573354009509043</v>
+        <v>1.354649270220858</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.502154634677006</v>
+        <v>1.284162783070785</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.821983120499328</v>
+        <v>1.297360444793154</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.41334384216822</v>
+        <v>1.544490892733854</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.511250938695121</v>
+        <v>1.757204984305773</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.620681281780047</v>
+        <v>1.724889380107828</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.669941675444802</v>
+        <v>1.42931894996573</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.663432171312582</v>
+        <v>1.365592000662421</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.528956182767549</v>
+        <v>1.620365987601992</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1.22902554734049</v>
+        <v>1.539512349578692</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.326583003032852</v>
+        <v>1.357687269488334</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.417898796669313</v>
+        <v>1.603455641522854</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.447808232320617</v>
+        <v>1.422969142283805</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.41256438850916</v>
+        <v>1.121332278977246</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.566651675379948</v>
+        <v>1.573270845529474</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.353899320854894</v>
+        <v>1.800086999809289</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.705317519670348</v>
+        <v>1.403510430418256</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.227638109990247</v>
+        <v>1.318365500192821</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.501734763888878</v>
+        <v>1.52818334809396</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.382080580696738</v>
+        <v>1.297238200331903</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.773078781575288</v>
+        <v>1.331128718568735</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.506059660264013</v>
+        <v>1.504022478909167</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.422475368361223</v>
+        <v>1.544335566702668</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.385533233079595</v>
+        <v>1.598701524171227</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.573010541702619</v>
+        <v>1.446247939620644</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.557167076778505</v>
+        <v>1.379405271258141</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.185862542231646</v>
+        <v>1.545149997626922</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.453233860096954</v>
+        <v>1.540278506403852</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.53876273897492</v>
+        <v>1.580460841940727</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.687873458274</v>
+        <v>1.42543369981354</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.77047134530534</v>
+        <v>1.528293972221606</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>1.702964784356758</v>
+        <v>1.629877741669151</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.398143894843812</v>
+        <v>1.396274689461594</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.476385268929761</v>
+        <v>1.433387303533747</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.354022962434353</v>
+        <v>1.344019663932321</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.649553991112626</v>
+        <v>1.403781446795678</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.37835129754849</v>
+        <v>1.505825162144745</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.822165187804154</v>
+        <v>1.579485528199016</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.428937073910823</v>
+        <v>1.468713261976448</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/08_localizer.xlsx
+++ b/sequences/08_localizer.xlsx
@@ -43,388 +43,463 @@
     <t>flower</t>
   </si>
   <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
     <t>house/house036.jpg</t>
   </si>
   <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
   </si>
   <si>
     <t>flower/flower049.jpg</t>
   </si>
   <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
     <t>dog/dog038.jpg</t>
   </si>
   <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
   </si>
   <si>
     <t>flower/flower043.jpg</t>
   </si>
   <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
   </si>
   <si>
     <t>flower/flower062.jpg</t>
   </si>
   <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
     <t>house/house055.jpg</t>
   </si>
   <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
   </si>
   <si>
     <t>face/face052.jpg</t>
   </si>
   <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
   </si>
   <si>
     <t>flower/flower054.jpg</t>
   </si>
   <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
     <t>face/face054.jpg</t>
   </si>
   <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
   </si>
   <si>
     <t>flower/flower074.jpg</t>
@@ -433,382 +508,307 @@
     <t>dog/dog072.jpg</t>
   </si>
   <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
     <t>face/face067.jpg</t>
   </si>
   <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
   </si>
   <si>
     <t>face/face066.jpg</t>
   </si>
   <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
+    <t>flower/flower077.jpg</t>
   </si>
   <si>
     <t>dog/dog070.jpg</t>
   </si>
   <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
     <t>flower/flower067.jpg</t>
   </si>
   <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
   </si>
   <si>
     <t>flower/flower089.jpg</t>
   </si>
   <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
   </si>
   <si>
     <t>face/face086.jpg</t>
   </si>
   <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
   </si>
   <si>
     <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.56028857639571</v>
+        <v>1.606017010869603</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.55539929224606</v>
+        <v>1.683619062800163</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.492347049921739</v>
+        <v>1.44404902314594</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.533601626996793</v>
+        <v>1.444706698614409</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.284832937943597</v>
+        <v>1.451568831457325</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.422778662946274</v>
+        <v>1.417252237527551</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.653167627079946</v>
+        <v>1.591599054371131</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.613203335946863</v>
+        <v>1.414425420800799</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.373690243651115</v>
+        <v>1.624300072618839</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.418476941431648</v>
+        <v>1.35236297435187</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.610112260438688</v>
+        <v>1.412054841147214</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.622507626123963</v>
+        <v>1.623488799078836</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.241739476896874</v>
+        <v>1.532149602264943</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.454178518391932</v>
+        <v>1.521742534335928</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.471795794996599</v>
+        <v>1.473510306249342</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.406708512010824</v>
+        <v>1.847669450809343</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.532418596193862</v>
+        <v>1.647372844081061</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.63249068629557</v>
+        <v>1.554188303702677</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.291277964590604</v>
+        <v>1.401793271607534</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.444341277558367</v>
+        <v>1.29597721014918</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.604111235395334</v>
+        <v>1.340772060733855</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.378927919631913</v>
+        <v>1.402807802054242</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.346690910202696</v>
+        <v>1.454085064536893</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.462713926368062</v>
+        <v>1.393424012467984</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.484803402631929</v>
+        <v>1.314117143761017</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.670331167183723</v>
+        <v>1.437048967552638</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1.577119783958654</v>
+        <v>1.512985367711067</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.349362433344503</v>
+        <v>1.564677800803865</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.545390279157496</v>
+        <v>1.171705281818822</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.579995732445776</v>
+        <v>1.564095708093058</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.601770819481726</v>
+        <v>1.581257269489796</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.503467479357233</v>
+        <v>1.416821994527475</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.180285628879011</v>
+        <v>1.47047387980236</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.510373416632225</v>
+        <v>1.337371709681503</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.607210172891455</v>
+        <v>1.423029150402939</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.522883372403717</v>
+        <v>1.428785771865013</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.581987862415711</v>
+        <v>1.576521065485359</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.578607592183272</v>
+        <v>1.656337492168745</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.356314494980753</v>
+        <v>1.437608077475139</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.417148060297894</v>
+        <v>1.557403441911163</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.19879228329829</v>
+        <v>1.316724320554449</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.241277530366887</v>
+        <v>1.233789325472642</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.660597805046521</v>
+        <v>1.712353107327686</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.572521997973983</v>
+        <v>1.523154312871831</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.495723160814326</v>
+        <v>1.482353370859119</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.383379485620654</v>
+        <v>1.711713950872018</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.558299233410065</v>
+        <v>1.19136050284592</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.36953469088144</v>
+        <v>1.557243267791843</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.637183004635794</v>
+        <v>1.310665812002131</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.714011507464275</v>
+        <v>1.502107816012651</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.590916587627938</v>
+        <v>1.43632741847081</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.282450162160913</v>
+        <v>1.389902854865853</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.613228847230321</v>
+        <v>1.501076192628299</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.680217011334241</v>
+        <v>1.422718996650789</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.536033228691177</v>
+        <v>1.437870389219296</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1.266061681534667</v>
+        <v>1.466244011544795</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.275374071154597</v>
+        <v>1.144729947788274</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.356496695994152</v>
+        <v>1.471798645197983</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.586518311743567</v>
+        <v>1.63288381864908</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.831324712616235</v>
+        <v>1.606583720522242</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1.416722536729559</v>
+        <v>1.415569495187693</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.387415898598039</v>
+        <v>1.457320312749844</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.478877868726068</v>
+        <v>1.453725451654364</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.494748898167195</v>
+        <v>1.549366655242736</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.251173360579319</v>
+        <v>1.265164721278966</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.513701452503118</v>
+        <v>1.435512524464946</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.434697241685704</v>
+        <v>1.574816919328514</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.479636433573425</v>
+        <v>1.435079723217637</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.575312235545873</v>
+        <v>1.441776179472535</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.645500626801489</v>
+        <v>1.512092372551165</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.455725089109979</v>
+        <v>1.596559661547252</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.529232286209741</v>
+        <v>1.419356946782786</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.591998921065558</v>
+        <v>1.354714414488951</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.339791275065552</v>
+        <v>1.647279543337534</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.516123797312796</v>
+        <v>1.459762187220504</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>1.64046736139419</v>
+        <v>1.232455048673513</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.202270808750453</v>
+        <v>1.599825423779445</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.363654433902306</v>
+        <v>1.435967614340561</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.57505149155799</v>
+        <v>1.561908055842222</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.406772572055158</v>
+        <v>1.657488263178834</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.389105701168279</v>
+        <v>1.650668957753129</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.423564123555294</v>
+        <v>1.774651294839348</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.616692382934912</v>
+        <v>1.401856740744517</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>1.397007322512914</v>
+        <v>1.607351437597536</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.531132263477516</v>
+        <v>1.555768200145228</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.43400047899155</v>
+        <v>1.588427535169218</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.837534232526796</v>
+        <v>1.684303949961751</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.367480706612333</v>
+        <v>1.316163348045125</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.137995315317228</v>
+        <v>1.66574517820628</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.446116910511359</v>
+        <v>1.312800932788033</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.316098071255271</v>
+        <v>1.328203165301015</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.619637025567914</v>
+        <v>1.542174891068985</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.584831726340676</v>
+        <v>1.252338105874199</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.464497558200744</v>
+        <v>1.560927170824849</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.843849549084952</v>
+        <v>1.487275978740471</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.444949283240401</v>
+        <v>1.351863623237822</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.564854542687572</v>
+        <v>1.494061067501082</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.287153371666567</v>
+        <v>1.17929092346298</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.410445659106641</v>
+        <v>1.559041692794661</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.492190324134181</v>
+        <v>1.491693160352291</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.435171852044711</v>
+        <v>1.515913965313681</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.529543273212403</v>
+        <v>1.724931981527172</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.619436993780157</v>
+        <v>1.474786271629979</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.222967049470553</v>
+        <v>1.273986477999931</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.552195887471965</v>
+        <v>1.436830094296989</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.630522835580344</v>
+        <v>1.540374724229202</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.51715376316599</v>
+        <v>1.669276196658932</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.527141508594753</v>
+        <v>1.658901510713287</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.266417631779537</v>
+        <v>1.171203694239776</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.370304071841159</v>
+        <v>1.367759148027918</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1.762873665532617</v>
+        <v>1.617563754669407</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.424210316221097</v>
+        <v>1.52951965884851</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.651421021057927</v>
+        <v>1.520645066198465</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.312558313095433</v>
+        <v>1.327538453340557</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.745045765008821</v>
+        <v>1.471960306635543</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.576729245248728</v>
+        <v>1.529504692707573</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.496683787127601</v>
+        <v>1.175899479681847</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.291762251215544</v>
+        <v>1.533616063191298</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.562389630645262</v>
+        <v>1.416705561032818</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.477830403008316</v>
+        <v>1.648896413673739</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.634102661424897</v>
+        <v>1.371469230797511</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.486780865040198</v>
+        <v>1.710135102136418</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.456518457148732</v>
+        <v>1.519725410882073</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.606738468313764</v>
+        <v>1.545623907490328</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.713624728387116</v>
+        <v>1.338096931735309</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.295904294047357</v>
+        <v>1.506379157111626</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.842789019539336</v>
+        <v>1.794456470012758</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.479573005510472</v>
+        <v>1.326199416313178</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.443364937981549</v>
+        <v>1.387244687946968</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.669392771379783</v>
+        <v>1.404907518092251</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.365903190307921</v>
+        <v>1.584707892287249</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.362416145411195</v>
+        <v>1.422540187989845</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.410982121586709</v>
+        <v>1.604662898113461</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.444984923221505</v>
+        <v>1.885777959103357</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.598215009416709</v>
+        <v>1.350021294910835</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.454174818607396</v>
+        <v>1.701968209215257</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.525694241539639</v>
+        <v>1.753263934903995</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.820719598284248</v>
+        <v>1.442690415753519</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.875914642465235</v>
+        <v>1.6018499932273</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.425440391155986</v>
+        <v>1.451303556317794</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.682294792678436</v>
+        <v>1.214777200224219</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.590939077863693</v>
+        <v>1.471057508576077</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.142982210737683</v>
+        <v>1.317769238077616</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.306822184637554</v>
+        <v>1.325764226511078</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.187333337325768</v>
+        <v>1.105059248997794</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.655892440047576</v>
+        <v>1.475623068183407</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.460418692011644</v>
+        <v>1.511932901407284</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.257133875625367</v>
+        <v>1.673977859618998</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.471904138292905</v>
+        <v>1.430013939311035</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.335602270466742</v>
+        <v>1.859539969497735</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.456137837522236</v>
+        <v>1.476952624959559</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.660194526035792</v>
+        <v>1.643057450619315</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.568350875803459</v>
+        <v>1.607754299787796</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.591693812858438</v>
+        <v>1.522702283043091</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.284059312837089</v>
+        <v>1.473802894497218</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.384500744942058</v>
+        <v>1.435817084585004</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.486343407091039</v>
+        <v>1.711196679345633</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.638323993347695</v>
+        <v>1.582119292808289</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.588138260751337</v>
+        <v>1.598467504027783</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.505601424801486</v>
+        <v>1.521145211234054</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.226445152439743</v>
+        <v>1.676268429130497</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.325870463713755</v>
+        <v>1.357585244367903</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.540568510278727</v>
+        <v>1.492752571134714</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.588844142337724</v>
+        <v>1.279848080223607</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>1.23180307637999</v>
+        <v>1.546137771022697</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.486555374077965</v>
+        <v>1.278027754356996</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.214924606948549</v>
+        <v>1.75644505469907</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.654025500062431</v>
+        <v>1.473741142993617</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.850395516725957</v>
+        <v>1.662243536558421</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.493751607427422</v>
+        <v>1.511056740420943</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1.239626845162341</v>
+        <v>1.5606733778446</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.595140874325886</v>
+        <v>1.405316004146483</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.522644130038393</v>
+        <v>1.437791822972319</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.528635767027417</v>
+        <v>1.602479180948402</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.560686188043689</v>
+        <v>1.527360790460304</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.7519789329143</v>
+        <v>1.467510409635588</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.349850362428604</v>
+        <v>1.17739768961138</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.613737415789808</v>
+        <v>1.397606244112497</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.675885567319186</v>
+        <v>1.5270281257674</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.369140337838013</v>
+        <v>1.669240961121462</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.557171798499639</v>
+        <v>1.586440521348363</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.632550488528322</v>
+        <v>1.807476876461748</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.482657097529546</v>
+        <v>1.643575039914862</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.19408533192497</v>
+        <v>1.447852663598578</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.633120020424042</v>
+        <v>1.392511153542819</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.476095856076785</v>
+        <v>1.413916827681983</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.558454370290435</v>
+        <v>1.63700068162574</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.333689710684884</v>
+        <v>1.647561075660453</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.611810265797252</v>
+        <v>1.454755252442421</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.725255745046476</v>
+        <v>1.369114672595179</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.576222467307401</v>
+        <v>1.377231032537675</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.391427209827075</v>
+        <v>1.471424811010427</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.400400682588883</v>
+        <v>1.241163718246649</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.413501287703759</v>
+        <v>1.539423218209006</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.739593114403851</v>
+        <v>1.352335970563427</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="F197">
-        <v>1.66403825225993</v>
+        <v>1.46504173749981</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.640356352913803</v>
+        <v>1.487666700110395</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.584546015976917</v>
+        <v>1.261548562699053</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.214391601057714</v>
+        <v>1.439417627773433</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.581638254535836</v>
+        <v>1.249911429892854</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.573353682882957</v>
+        <v>1.318331566605836</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>1.186281506058343</v>
+        <v>1.505768542200856</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.324844464623428</v>
+        <v>1.488250121232619</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.357067984019652</v>
+        <v>1.209802891837406</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.348643631672937</v>
+        <v>1.470350428463236</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.627965662541102</v>
+        <v>1.461118658577598</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.597418094692766</v>
+        <v>1.577668201933611</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.440904234106812</v>
+        <v>1.455498618914014</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.629654610009375</v>
+        <v>1.702044210349342</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.647739242868161</v>
+        <v>1.482920113274398</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.418256035609354</v>
+        <v>1.555984720625646</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.497136033029944</v>
+        <v>1.370254902459258</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.668355490849762</v>
+        <v>1.543854609578044</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.456245018596806</v>
+        <v>1.674194229068649</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.53124356976173</v>
+        <v>1.553650387002448</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.560009678865689</v>
+        <v>1.492346132699911</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.331775393544116</v>
+        <v>1.270795973311867</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.354649270220858</v>
+        <v>1.454963021884847</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.284162783070785</v>
+        <v>1.578633171118887</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.297360444793154</v>
+        <v>1.478427677576569</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.544490892733854</v>
+        <v>1.470450091059648</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.757204984305773</v>
+        <v>1.737409973780847</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.724889380107828</v>
+        <v>1.415684049242197</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.42931894996573</v>
+        <v>1.470731221151698</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.365592000662421</v>
+        <v>1.506167729200969</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.620365987601992</v>
+        <v>1.498483241920398</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.539512349578692</v>
+        <v>1.393789695736988</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.357687269488334</v>
+        <v>1.567769200105268</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.603455641522854</v>
+        <v>1.470511562249797</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.422969142283805</v>
+        <v>1.41751626933174</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.121332278977246</v>
+        <v>1.59951622059943</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.573270845529474</v>
+        <v>1.553997719159353</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.800086999809289</v>
+        <v>1.369421556713065</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.403510430418256</v>
+        <v>1.794542162843556</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.318365500192821</v>
+        <v>1.557100037912422</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.52818334809396</v>
+        <v>1.733090252486253</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.297238200331903</v>
+        <v>1.509008381803959</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.331128718568735</v>
+        <v>1.247310042586085</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.504022478909167</v>
+        <v>1.745187287560075</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="F241">
-        <v>1.544335566702668</v>
+        <v>1.593814702661799</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.598701524171227</v>
+        <v>1.60487040148292</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.446247939620644</v>
+        <v>1.334136091561931</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.379405271258141</v>
+        <v>1.432752719732231</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.545149997626922</v>
+        <v>1.494149875487832</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.540278506403852</v>
+        <v>1.790723432286254</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.580460841940727</v>
+        <v>1.462476579008046</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.42543369981354</v>
+        <v>1.457168590620006</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.528293972221606</v>
+        <v>1.312480376984365</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.629877741669151</v>
+        <v>1.546428838491821</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.396274689461594</v>
+        <v>1.495938966002532</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.433387303533747</v>
+        <v>1.398476030626355</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.344019663932321</v>
+        <v>1.426575909579467</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.403781446795678</v>
+        <v>1.412322334227886</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.505825162144745</v>
+        <v>1.446233678947958</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.579485528199016</v>
+        <v>1.138467968829242</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.468713261976448</v>
+        <v>1.222217272055069</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/08_localizer.xlsx
+++ b/sequences/08_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
   </si>
   <si>
     <t>house/house041.jpg</t>
   </si>
   <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
     <t>house/house035.jpg</t>
   </si>
   <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
     <t>house/house046.jpg</t>
   </si>
   <si>
-    <t>face/face032.jpg</t>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
   </si>
   <si>
     <t>face/face037.jpg</t>
   </si>
   <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
   </si>
   <si>
     <t>face/face062.jpg</t>
   </si>
   <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
+    <t>house/house058.jpg</t>
   </si>
   <si>
     <t>flower/flower062.jpg</t>
   </si>
   <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
   </si>
   <si>
     <t>dog/dog058.jpg</t>
   </si>
   <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
   </si>
   <si>
     <t>flower/flower055.jpg</t>
   </si>
   <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
     <t>house/house050.jpg</t>
   </si>
   <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
   </si>
   <si>
     <t>flower/flower071.jpg</t>
   </si>
   <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
     <t>house/house078.jpg</t>
   </si>
   <si>
     <t>house/house071.jpg</t>
   </si>
   <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
     <t>face/face065.jpg</t>
   </si>
   <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
   </si>
   <si>
     <t>dog/dog085.jpg</t>
   </si>
   <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
     <t>house/house083.jpg</t>
   </si>
   <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
     <t>face/face087.jpg</t>
   </si>
   <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
     <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.606017010869603</v>
+        <v>1.43446684655122</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.683619062800163</v>
+        <v>1.347450622224483</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.44404902314594</v>
+        <v>1.55668716803713</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.444706698614409</v>
+        <v>1.618142370256204</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.451568831457325</v>
+        <v>1.40887766141941</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.417252237527551</v>
+        <v>1.402115893108105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.591599054371131</v>
+        <v>1.540685214261503</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.414425420800799</v>
+        <v>1.115301062336598</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.624300072618839</v>
+        <v>1.885984927810032</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.35236297435187</v>
+        <v>1.613476324503193</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.412054841147214</v>
+        <v>1.342987649523744</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.623488799078836</v>
+        <v>1.599210809840913</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.532149602264943</v>
+        <v>1.360262130892421</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.521742534335928</v>
+        <v>1.471489252637089</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.473510306249342</v>
+        <v>1.282270933545438</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.847669450809343</v>
+        <v>1.443477777502835</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.647372844081061</v>
+        <v>1.330464947579099</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.554188303702677</v>
+        <v>1.470637924542879</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.401793271607534</v>
+        <v>1.597743345622515</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1.29597721014918</v>
+        <v>1.546575522525023</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.340772060733855</v>
+        <v>1.727637570958728</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.402807802054242</v>
+        <v>1.470756718429407</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.454085064536893</v>
+        <v>1.770012282047123</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.393424012467984</v>
+        <v>1.572919363290185</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.314117143761017</v>
+        <v>1.410358744166697</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.437048967552638</v>
+        <v>1.234194540833809</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.512985367711067</v>
+        <v>1.352652900564248</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.564677800803865</v>
+        <v>1.542208020883188</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.171705281818822</v>
+        <v>1.124523496391178</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.564095708093058</v>
+        <v>1.530164397752612</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.581257269489796</v>
+        <v>1.540768888068844</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.416821994527475</v>
+        <v>1.45138853504167</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.47047387980236</v>
+        <v>1.64882317111239</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.337371709681503</v>
+        <v>1.215677248306479</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.423029150402939</v>
+        <v>1.48433669605625</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.428785771865013</v>
+        <v>1.162086515480235</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.576521065485359</v>
+        <v>1.415064611672609</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.656337492168745</v>
+        <v>1.502134153544961</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.437608077475139</v>
+        <v>1.497680952979601</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.557403441911163</v>
+        <v>1.414316383612784</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.316724320554449</v>
+        <v>1.581333527763795</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.233789325472642</v>
+        <v>1.66723399228694</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.712353107327686</v>
+        <v>1.741411785891415</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.523154312871831</v>
+        <v>1.430591043877209</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.482353370859119</v>
+        <v>1.231829450753654</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.711713950872018</v>
+        <v>1.463015255576952</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.19136050284592</v>
+        <v>1.526161155584362</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.557243267791843</v>
+        <v>1.309579230871387</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.310665812002131</v>
+        <v>1.456747788395187</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.502107816012651</v>
+        <v>1.47932878825172</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.43632741847081</v>
+        <v>1.417095676596233</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.389902854865853</v>
+        <v>1.584660844236823</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.501076192628299</v>
+        <v>1.475928099824859</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.422718996650789</v>
+        <v>1.14250559569409</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.437870389219296</v>
+        <v>1.233926273561085</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.466244011544795</v>
+        <v>1.473532217941024</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.144729947788274</v>
+        <v>1.581757877271107</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.471798645197983</v>
+        <v>1.72969925509876</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.63288381864908</v>
+        <v>1.446282216442861</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.606583720522242</v>
+        <v>1.648759587863109</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.415569495187693</v>
+        <v>1.371217362109308</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.457320312749844</v>
+        <v>1.603317609635496</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.453725451654364</v>
+        <v>1.650335421010654</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.549366655242736</v>
+        <v>1.701594737312752</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.265164721278966</v>
+        <v>1.510236237002136</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.435512524464946</v>
+        <v>1.474363012688213</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.574816919328514</v>
+        <v>1.615707394521282</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.435079723217637</v>
+        <v>1.483214317492746</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.441776179472535</v>
+        <v>1.46657522807508</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.512092372551165</v>
+        <v>1.452176782140578</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.596559661547252</v>
+        <v>1.805824656105949</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.419356946782786</v>
+        <v>1.499433583735277</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.354714414488951</v>
+        <v>1.502637903534326</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.647279543337534</v>
+        <v>1.491087815378827</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.459762187220504</v>
+        <v>1.816515205575531</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.232455048673513</v>
+        <v>1.47789541891772</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.599825423779445</v>
+        <v>1.78086672754442</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.435967614340561</v>
+        <v>1.197758593954109</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.561908055842222</v>
+        <v>1.420322421519771</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.657488263178834</v>
+        <v>1.515431590139241</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.650668957753129</v>
+        <v>1.390534143554346</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.774651294839348</v>
+        <v>1.52345440263963</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.401856740744517</v>
+        <v>1.570368376513779</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.607351437597536</v>
+        <v>1.605103763409527</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.555768200145228</v>
+        <v>1.460798891102005</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.588427535169218</v>
+        <v>1.384986145280002</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.684303949961751</v>
+        <v>1.505660325903282</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1.316163348045125</v>
+        <v>1.721334586518432</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.66574517820628</v>
+        <v>1.638748799993007</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.312800932788033</v>
+        <v>1.658924330860773</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.328203165301015</v>
+        <v>1.423987949065848</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.542174891068985</v>
+        <v>1.657120104355026</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.252338105874199</v>
+        <v>1.590477140362134</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.560927170824849</v>
+        <v>1.472653972351968</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.487275978740471</v>
+        <v>1.568451092017763</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.351863623237822</v>
+        <v>1.538526241645018</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.494061067501082</v>
+        <v>1.446794995897336</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.17929092346298</v>
+        <v>1.464071647303437</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.559041692794661</v>
+        <v>1.367163030737405</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.491693160352291</v>
+        <v>1.35550765567931</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.515913965313681</v>
+        <v>1.398149260514057</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.724931981527172</v>
+        <v>1.200473339387634</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.474786271629979</v>
+        <v>1.665974162073982</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.273986477999931</v>
+        <v>1.584782416393862</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.436830094296989</v>
+        <v>1.441412591001509</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.540374724229202</v>
+        <v>1.583292155081642</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.669276196658932</v>
+        <v>1.521418982045325</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.658901510713287</v>
+        <v>1.75915820162984</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.171203694239776</v>
+        <v>1.58656080327019</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.367759148027918</v>
+        <v>1.201480919947131</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.617563754669407</v>
+        <v>1.240839284967997</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.52951965884851</v>
+        <v>1.522902695207445</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.520645066198465</v>
+        <v>1.415244134841279</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.327538453340557</v>
+        <v>1.425173547343551</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.471960306635543</v>
+        <v>1.668543271961651</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.529504692707573</v>
+        <v>1.181733216256251</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.175899479681847</v>
+        <v>1.577427319624741</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>1.533616063191298</v>
+        <v>1.444350717578109</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.416705561032818</v>
+        <v>1.597872241553188</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.648896413673739</v>
+        <v>1.490874304596584</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.371469230797511</v>
+        <v>1.606024488160804</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.710135102136418</v>
+        <v>1.277964389495408</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.519725410882073</v>
+        <v>1.391605262072471</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.545623907490328</v>
+        <v>1.751809814292252</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.338096931735309</v>
+        <v>1.623222655104684</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.506379157111626</v>
+        <v>1.385055463304064</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.794456470012758</v>
+        <v>1.418914561172673</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.326199416313178</v>
+        <v>1.376924336365751</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.387244687946968</v>
+        <v>1.358489285012795</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.404907518092251</v>
+        <v>1.362117235093439</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.584707892287249</v>
+        <v>1.505980235004864</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.422540187989845</v>
+        <v>1.547740439025264</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.604662898113461</v>
+        <v>1.759987133250815</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1.885777959103357</v>
+        <v>1.267273293086312</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.350021294910835</v>
+        <v>1.441956053908334</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.701968209215257</v>
+        <v>1.483574018465441</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.753263934903995</v>
+        <v>1.499695193463243</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.442690415753519</v>
+        <v>1.352682597196993</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.6018499932273</v>
+        <v>1.371684885667821</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.451303556317794</v>
+        <v>1.425231005633256</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.214777200224219</v>
+        <v>1.3664825097363</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.471057508576077</v>
+        <v>1.510627543440515</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.317769238077616</v>
+        <v>1.784249036276114</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.325764226511078</v>
+        <v>1.746967002585059</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.105059248997794</v>
+        <v>1.400329481488444</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.475623068183407</v>
+        <v>1.421830563634006</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.511932901407284</v>
+        <v>1.771399292083405</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="F149">
-        <v>1.673977859618998</v>
+        <v>1.470301605203404</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.430013939311035</v>
+        <v>1.812793349250136</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.859539969497735</v>
+        <v>1.360941093380678</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.476952624959559</v>
+        <v>1.630861603352946</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.643057450619315</v>
+        <v>1.301145611591655</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.607754299787796</v>
+        <v>1.304046970283069</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.522702283043091</v>
+        <v>1.666582529334216</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.473802894497218</v>
+        <v>1.743085180534418</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.435817084585004</v>
+        <v>1.429102251450557</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.711196679345633</v>
+        <v>1.527040469259243</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.582119292808289</v>
+        <v>1.501057186441275</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.598467504027783</v>
+        <v>1.309184097121829</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.521145211234054</v>
+        <v>1.412594829785949</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.676268429130497</v>
+        <v>1.421069075929884</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.357585244367903</v>
+        <v>1.496760794935683</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.492752571134714</v>
+        <v>1.684324643000869</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.279848080223607</v>
+        <v>1.347289231988883</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1.546137771022697</v>
+        <v>1.498981320964306</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.278027754356996</v>
+        <v>1.537916492639031</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.75644505469907</v>
+        <v>1.640605914648797</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.473741142993617</v>
+        <v>1.750764652098973</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.662243536558421</v>
+        <v>1.338573070276851</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.511056740420943</v>
+        <v>1.427697039452812</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1.5606733778446</v>
+        <v>1.689791884260323</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.405316004146483</v>
+        <v>1.455972362016104</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.437791822972319</v>
+        <v>1.606075983986442</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.602479180948402</v>
+        <v>1.308346480915848</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.527360790460304</v>
+        <v>1.586337642991909</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.467510409635588</v>
+        <v>1.494340925626324</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.17739768961138</v>
+        <v>1.776428198862829</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.397606244112497</v>
+        <v>1.324828349094526</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.5270281257674</v>
+        <v>1.412848412150046</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.669240961121462</v>
+        <v>1.432436736950641</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.586440521348363</v>
+        <v>1.598971500484512</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.807476876461748</v>
+        <v>1.467669906688767</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.643575039914862</v>
+        <v>1.480797249151042</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.447852663598578</v>
+        <v>1.302437506584579</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.392511153542819</v>
+        <v>1.361118247376131</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.413916827681983</v>
+        <v>1.28503800584303</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.63700068162574</v>
+        <v>1.505369490997779</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.647561075660453</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.454755252442421</v>
+        <v>1.357090793198618</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.369114672595179</v>
+        <v>1.648774626393318</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.377231032537675</v>
+        <v>1.481180771881736</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.471424811010427</v>
+        <v>1.463664057834075</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.241163718246649</v>
+        <v>1.48349224485414</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.539423218209006</v>
+        <v>1.800843682325663</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.352335970563427</v>
+        <v>1.531271895795632</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.46504173749981</v>
+        <v>1.515272014570345</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.487666700110395</v>
+        <v>1.534477067729647</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.261548562699053</v>
+        <v>1.245757182471011</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.439417627773433</v>
+        <v>1.562441679242659</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.249911429892854</v>
+        <v>1.430062148867947</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.318331566605836</v>
+        <v>1.42458325559275</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="F203">
-        <v>1.505768542200856</v>
+        <v>1.938549747339517</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.488250121232619</v>
+        <v>1.504915676230896</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.209802891837406</v>
+        <v>1.401248925380636</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.470350428463236</v>
+        <v>1.474154746630645</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.461118658577598</v>
+        <v>1.601310069423154</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.577668201933611</v>
+        <v>1.607137727738748</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.455498618914014</v>
+        <v>1.48600821659056</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.702044210349342</v>
+        <v>1.29184482459744</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.482920113274398</v>
+        <v>1.752947536599752</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.555984720625646</v>
+        <v>1.598556362385185</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1.370254902459258</v>
+        <v>1.447460445833606</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.543854609578044</v>
+        <v>1.523429911865064</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.674194229068649</v>
+        <v>1.493681507534701</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.553650387002448</v>
+        <v>1.479139533820617</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.492346132699911</v>
+        <v>1.276024021054883</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.270795973311867</v>
+        <v>1.513295293263187</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.454963021884847</v>
+        <v>1.540070780945284</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.578633171118887</v>
+        <v>1.368524072730488</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.478427677576569</v>
+        <v>1.510124177627165</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.470450091059648</v>
+        <v>1.450593644594365</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.737409973780847</v>
+        <v>1.229058469545607</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.415684049242197</v>
+        <v>1.48659465161855</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="F225">
-        <v>1.470731221151698</v>
+        <v>1.447741720596521</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.506167729200969</v>
+        <v>1.389982417026858</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.498483241920398</v>
+        <v>1.448068576602564</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.393789695736988</v>
+        <v>1.568199781397348</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.567769200105268</v>
+        <v>1.285882355781988</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.470511562249797</v>
+        <v>1.778927589567321</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.41751626933174</v>
+        <v>1.615853327555867</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.59951622059943</v>
+        <v>1.572954256985758</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.553997719159353</v>
+        <v>1.593521976422942</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.369421556713065</v>
+        <v>1.618068957960333</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.794542162843556</v>
+        <v>1.579439277008711</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.557100037912422</v>
+        <v>1.792285433461364</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.733090252486253</v>
+        <v>1.421340061079857</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.509008381803959</v>
+        <v>1.379958486614211</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.247310042586085</v>
+        <v>1.513057744811603</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.745187287560075</v>
+        <v>1.562725233992684</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.593814702661799</v>
+        <v>1.762675083147338</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.60487040148292</v>
+        <v>1.707697607382904</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.334136091561931</v>
+        <v>1.706207537457128</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.432752719732231</v>
+        <v>1.302219119963786</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.494149875487832</v>
+        <v>1.435468082020636</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.790723432286254</v>
+        <v>1.871131519561465</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.462476579008046</v>
+        <v>1.549652221131404</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.457168590620006</v>
+        <v>1.473133679808666</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.312480376984365</v>
+        <v>1.481306464825138</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.546428838491821</v>
+        <v>1.368369142691636</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.495938966002532</v>
+        <v>1.620007582718844</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.398476030626355</v>
+        <v>1.403335844090433</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.426575909579467</v>
+        <v>1.569763846173005</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.412322334227886</v>
+        <v>1.424761589570988</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.446233678947958</v>
+        <v>1.386621704098483</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.138467968829242</v>
+        <v>1.247956185738263</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.222217272055069</v>
+        <v>1.494475204475225</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/08_localizer.xlsx
+++ b/sequences/08_localizer.xlsx
@@ -37,778 +37,778 @@
     <t>dog</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>house</t>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
   </si>
   <si>
     <t>face/face039.jpg</t>
   </si>
   <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
     <t>face/face040.jpg</t>
   </si>
   <si>
-    <t>dog/dog047.jpg</t>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
   </si>
   <si>
     <t>flower/flower034.jpg</t>
   </si>
   <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
     <t>face/face042.jpg</t>
   </si>
   <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
   </si>
   <si>
     <t>house/house040.jpg</t>
   </si>
   <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
   </si>
   <si>
     <t>face/face046.jpg</t>
   </si>
   <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
     <t>house/house042.jpg</t>
   </si>
   <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
   </si>
   <si>
     <t>dog/dog057.jpg</t>
   </si>
   <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
     <t>dog/dog050.jpg</t>
   </si>
   <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
+    <t>dog/dog054.jpg</t>
   </si>
   <si>
     <t>dog/dog051.jpg</t>
   </si>
   <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
   </si>
   <si>
     <t>face/face052.jpg</t>
   </si>
   <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
     <t>flower/flower058.jpg</t>
   </si>
   <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
   </si>
   <si>
     <t>house/house079.jpg</t>
   </si>
   <si>
-    <t>face/face074.jpg</t>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
   </si>
   <si>
     <t>dog/dog073.jpg</t>
   </si>
   <si>
-    <t>flower/flower075.jpg</t>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
   </si>
   <si>
     <t>face/face077.jpg</t>
   </si>
   <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
     <t>dog/dog067.jpg</t>
   </si>
   <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
   </si>
   <si>
     <t>face/face095.jpg</t>
   </si>
   <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
     <t>dog/dog092.jpg</t>
   </si>
   <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
+    <t>flower/flower091.jpg</t>
   </si>
   <si>
     <t>face/face084.jpg</t>
   </si>
   <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
     <t>flower/flower086.jpg</t>
   </si>
   <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
+    <t>face/face089.jpg</t>
   </si>
   <si>
     <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.43446684655122</v>
+        <v>1.602798056503233</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.347450622224483</v>
+        <v>1.554557453144057</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.55668716803713</v>
+        <v>1.444507388329121</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.618142370256204</v>
+        <v>1.611390462623231</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.40887766141941</v>
+        <v>1.350563482853752</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.402115893108105</v>
+        <v>1.638226289799832</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.540685214261503</v>
+        <v>1.354227244859183</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.115301062336598</v>
+        <v>1.274962424808185</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.885984927810032</v>
+        <v>1.675414107972458</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.613476324503193</v>
+        <v>1.669618696617393</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.342987649523744</v>
+        <v>1.916931995917873</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.599210809840913</v>
+        <v>1.711899490802972</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.360262130892421</v>
+        <v>1.401437337100268</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.471489252637089</v>
+        <v>1.626529859765913</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.282270933545438</v>
+        <v>1.672447163774837</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.443477777502835</v>
+        <v>1.654792973121005</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.330464947579099</v>
+        <v>1.410420017559719</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.470637924542879</v>
+        <v>1.382175659901026</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.597743345622515</v>
+        <v>1.734934757546895</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.546575522525023</v>
+        <v>1.472979240487515</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.727637570958728</v>
+        <v>1.461497074965395</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.470756718429407</v>
+        <v>1.619179441455402</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.770012282047123</v>
+        <v>1.389057001039559</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.572919363290185</v>
+        <v>1.448007727899022</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.410358744166697</v>
+        <v>1.53755976015319</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.234194540833809</v>
+        <v>1.402585216177185</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.352652900564248</v>
+        <v>1.662627969548613</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.542208020883188</v>
+        <v>1.499428381622645</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.124523496391178</v>
+        <v>1.374749647862515</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.530164397752612</v>
+        <v>1.383920848009466</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.540768888068844</v>
+        <v>1.532710967476738</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.45138853504167</v>
+        <v>1.438530997170905</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.64882317111239</v>
+        <v>1.429408819562632</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.215677248306479</v>
+        <v>1.563150547210827</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.48433669605625</v>
+        <v>1.569699602642656</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.162086515480235</v>
+        <v>1.620464461575073</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.415064611672609</v>
+        <v>1.432077744194024</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.502134153544961</v>
+        <v>1.519219236507159</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.497680952979601</v>
+        <v>1.305718303461822</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.414316383612784</v>
+        <v>1.550479894201243</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.581333527763795</v>
+        <v>1.402412258344384</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.66723399228694</v>
+        <v>1.63911320350098</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.741411785891415</v>
+        <v>1.482146430506181</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.430591043877209</v>
+        <v>1.541556989449827</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.231829450753654</v>
+        <v>1.478258165731502</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.463015255576952</v>
+        <v>1.28467643761752</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.526161155584362</v>
+        <v>1.271040258147486</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.309579230871387</v>
+        <v>1.256610617095184</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.456747788395187</v>
+        <v>1.513572320420759</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.47932878825172</v>
+        <v>1.53184859481255</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.417095676596233</v>
+        <v>1.472798022310191</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.584660844236823</v>
+        <v>1.471367189767815</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.475928099824859</v>
+        <v>1.498475836158318</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.14250559569409</v>
+        <v>1.505919873755091</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.233926273561085</v>
+        <v>1.431922622958408</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.473532217941024</v>
+        <v>1.340357526699347</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.581757877271107</v>
+        <v>1.747056701401801</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.72969925509876</v>
+        <v>1.370757370564301</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.446282216442861</v>
+        <v>1.576314203609069</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.648759587863109</v>
+        <v>1.61220791451457</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.371217362109308</v>
+        <v>1.461377231865884</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.603317609635496</v>
+        <v>1.491655469433712</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.650335421010654</v>
+        <v>1.428530865031844</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.701594737312752</v>
+        <v>1.418917698181028</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.510236237002136</v>
+        <v>1.195414360404674</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.474363012688213</v>
+        <v>1.181804575094887</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.615707394521282</v>
+        <v>1.608352954143332</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.483214317492746</v>
+        <v>1.43431518303163</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.46657522807508</v>
+        <v>1.474182492408104</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.452176782140578</v>
+        <v>1.3210800564753</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.805824656105949</v>
+        <v>1.762503776813275</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.499433583735277</v>
+        <v>1.621679743846325</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.502637903534326</v>
+        <v>1.509113210704602</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.491087815378827</v>
+        <v>1.485635024969828</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.816515205575531</v>
+        <v>1.468358887282452</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.47789541891772</v>
+        <v>1.656393574862534</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.78086672754442</v>
+        <v>1.487024677962585</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.197758593954109</v>
+        <v>1.187870996847867</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.420322421519771</v>
+        <v>1.546106155990606</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1.515431590139241</v>
+        <v>1.42842961016006</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.390534143554346</v>
+        <v>1.299109895813166</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>1.52345440263963</v>
+        <v>1.501538535120103</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.570368376513779</v>
+        <v>1.509996976272113</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.605103763409527</v>
+        <v>1.441939602975149</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.460798891102005</v>
+        <v>1.482415102309762</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.384986145280002</v>
+        <v>1.255697608785213</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.505660325903282</v>
+        <v>1.486757455218645</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.721334586518432</v>
+        <v>1.27004847586009</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.638748799993007</v>
+        <v>1.662790602290003</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.658924330860773</v>
+        <v>1.434221115106831</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.423987949065848</v>
+        <v>1.461628233442983</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.657120104355026</v>
+        <v>1.213422184013037</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.590477140362134</v>
+        <v>1.674538464934952</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.472653972351968</v>
+        <v>1.548849593652798</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.568451092017763</v>
+        <v>1.570679915622395</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.538526241645018</v>
+        <v>1.146803420276462</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.446794995897336</v>
+        <v>1.298478389560528</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.464071647303437</v>
+        <v>1.489161665530434</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.367163030737405</v>
+        <v>1.616643155274091</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.35550765567931</v>
+        <v>1.444959265461361</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.398149260514057</v>
+        <v>1.350883893770089</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.200473339387634</v>
+        <v>1.496837809070079</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.665974162073982</v>
+        <v>1.33488177347097</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.584782416393862</v>
+        <v>1.283620722667695</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.441412591001509</v>
+        <v>1.455232060968436</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.583292155081642</v>
+        <v>1.620881078540862</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.521418982045325</v>
+        <v>1.408801693994603</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.75915820162984</v>
+        <v>1.651328904143305</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>1.58656080327019</v>
+        <v>1.355179123082882</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.201480919947131</v>
+        <v>1.319656898950662</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.240839284967997</v>
+        <v>1.35004799550387</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.522902695207445</v>
+        <v>1.572458380548272</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.415244134841279</v>
+        <v>1.411666607316727</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.425173547343551</v>
+        <v>1.618445373752597</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.668543271961651</v>
+        <v>1.40086978003805</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.181733216256251</v>
+        <v>1.389512054920788</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.577427319624741</v>
+        <v>1.517867918721033</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>1.444350717578109</v>
+        <v>1.548504116349713</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.597872241553188</v>
+        <v>1.311449645225285</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.490874304596584</v>
+        <v>1.369892806613793</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.606024488160804</v>
+        <v>1.359715673341937</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.277964389495408</v>
+        <v>1.516763510135045</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.391605262072471</v>
+        <v>1.873397669337387</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.751809814292252</v>
+        <v>1.330807617833433</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.623222655104684</v>
+        <v>1.526810711506657</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.385055463304064</v>
+        <v>1.682504003727306</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.418914561172673</v>
+        <v>1.523137814395968</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.376924336365751</v>
+        <v>1.757821523773559</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.358489285012795</v>
+        <v>1.749766614670745</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.362117235093439</v>
+        <v>1.360825941756135</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.505980235004864</v>
+        <v>1.659427453571138</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.547740439025264</v>
+        <v>1.51543645896877</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.759987133250815</v>
+        <v>1.653094628960128</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.267273293086312</v>
+        <v>1.207700562786965</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.441956053908334</v>
+        <v>1.434296788485973</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.483574018465441</v>
+        <v>1.661885883028978</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.499695193463243</v>
+        <v>1.528035572383639</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.352682597196993</v>
+        <v>1.409377709903346</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.371684885667821</v>
+        <v>1.575644153841139</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.425231005633256</v>
+        <v>1.635575777042645</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.3664825097363</v>
+        <v>1.419187734754831</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.510627543440515</v>
+        <v>1.522926198279187</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.784249036276114</v>
+        <v>1.420997635866934</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.746967002585059</v>
+        <v>1.513305545227839</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.400329481488444</v>
+        <v>1.547981888932004</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.421830563634006</v>
+        <v>1.46380155556038</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.771399292083405</v>
+        <v>1.578479457635701</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.470301605203404</v>
+        <v>1.615401779899063</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.812793349250136</v>
+        <v>1.546757180247752</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.360941093380678</v>
+        <v>1.265786223970708</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.630861603352946</v>
+        <v>1.655791241891736</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.301145611591655</v>
+        <v>1.517496193701452</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.304046970283069</v>
+        <v>1.345651235340165</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.666582529334216</v>
+        <v>1.594318856461048</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.743085180534418</v>
+        <v>1.626072168439479</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.429102251450557</v>
+        <v>1.500000169928164</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.527040469259243</v>
+        <v>1.492700590749008</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.501057186441275</v>
+        <v>1.5493319465688</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.309184097121829</v>
+        <v>1.235855394013176</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.412594829785949</v>
+        <v>1.546898922311114</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.421069075929884</v>
+        <v>1.325897559792016</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.496760794935683</v>
+        <v>1.405493963224919</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.684324643000869</v>
+        <v>1.530637793107907</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.347289231988883</v>
+        <v>1.408496470727967</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.498981320964306</v>
+        <v>1.466444333911384</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.537916492639031</v>
+        <v>1.608534796566709</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.640605914648797</v>
+        <v>1.401784290474558</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.750764652098973</v>
+        <v>1.502940285919756</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.338573070276851</v>
+        <v>1.247904185111978</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.427697039452812</v>
+        <v>1.530886871852609</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.689791884260323</v>
+        <v>1.383654069570343</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.455972362016104</v>
+        <v>1.694593773065029</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.606075983986442</v>
+        <v>1.608868104891768</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.308346480915848</v>
+        <v>1.448482214361136</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.586337642991909</v>
+        <v>1.601066843866602</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.494340925626324</v>
+        <v>1.64550291098679</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.776428198862829</v>
+        <v>1.580410379059406</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.324828349094526</v>
+        <v>1.502745827164007</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.412848412150046</v>
+        <v>1.563442664471323</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.432436736950641</v>
+        <v>1.469221148380439</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.598971500484512</v>
+        <v>1.561701183576782</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.467669906688767</v>
+        <v>1.331250243409633</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.480797249151042</v>
+        <v>1.418977112476695</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.302437506584579</v>
+        <v>1.558630013464956</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.361118247376131</v>
+        <v>1.549999953943038</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.28503800584303</v>
+        <v>1.821927704296431</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.505369490997779</v>
+        <v>1.580500289115981</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>2</v>
+        <v>1.705536226694791</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.357090793198618</v>
+        <v>1.544565912536108</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.648774626393318</v>
+        <v>1.415562563420045</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.481180771881736</v>
+        <v>1.607796008447027</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.463664057834075</v>
+        <v>1.470388824135994</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="F194">
-        <v>1.48349224485414</v>
+        <v>1.330136615896335</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.800843682325663</v>
+        <v>1.391462576551125</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.531271895795632</v>
+        <v>1.283957747968253</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.515272014570345</v>
+        <v>1.253956553718612</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.534477067729647</v>
+        <v>1.483457488269665</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.245757182471011</v>
+        <v>1.412085580355387</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.562441679242659</v>
+        <v>1.74404554776276</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.430062148867947</v>
+        <v>1.662291881002761</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.42458325559275</v>
+        <v>1.326727285233227</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.938549747339517</v>
+        <v>1.508387777804603</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.504915676230896</v>
+        <v>1.697544518151519</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.401248925380636</v>
+        <v>1.258723401828503</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.474154746630645</v>
+        <v>1.415384781741928</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.601310069423154</v>
+        <v>1.217798990482809</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.607137727738748</v>
+        <v>1.446963585929723</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.48600821659056</v>
+        <v>1.692214736890165</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.29184482459744</v>
+        <v>1.67605096816399</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="F211">
-        <v>1.752947536599752</v>
+        <v>1.546199751758071</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="F212">
-        <v>1.598556362385185</v>
+        <v>1.548264049994626</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.447460445833606</v>
+        <v>1.570111862821869</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.523429911865064</v>
+        <v>1.493653659532594</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.493681507534701</v>
+        <v>1.540585365947093</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.479139533820617</v>
+        <v>1.559068641664695</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.276024021054883</v>
+        <v>1.742344887943836</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.513295293263187</v>
+        <v>1.38134049633357</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.540070780945284</v>
+        <v>1.491055425858426</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.368524072730488</v>
+        <v>1.486849848973392</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.510124177627165</v>
+        <v>1.570023507977111</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.450593644594365</v>
+        <v>1.41561098062789</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.229058469545607</v>
+        <v>1.539501591482312</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.48659465161855</v>
+        <v>1.382755587653892</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.447741720596521</v>
+        <v>1.120984510506551</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.389982417026858</v>
+        <v>1.769097900913297</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.448068576602564</v>
+        <v>1.758136368397051</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.568199781397348</v>
+        <v>1.23126243326759</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.285882355781988</v>
+        <v>1.446569913102782</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.778927589567321</v>
+        <v>1.503985677714184</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.615853327555867</v>
+        <v>1.515473172917564</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.572954256985758</v>
+        <v>1.404448881660713</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.593521976422942</v>
+        <v>1.41809668600219</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.618068957960333</v>
+        <v>1.565640759785295</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.579439277008711</v>
+        <v>1.38719600007885</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.792285433461364</v>
+        <v>1.624402156058336</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.421340061079857</v>
+        <v>1.307190363975544</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.379958486614211</v>
+        <v>1.488297795795281</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.513057744811603</v>
+        <v>1.644768215997331</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.562725233992684</v>
+        <v>1.12197307123818</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.762675083147338</v>
+        <v>1.564494920087673</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242">
-        <v>1.707697607382904</v>
+        <v>1.598882743077026</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.706207537457128</v>
+        <v>1.661758101671657</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.302219119963786</v>
+        <v>1.29204477268141</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.435468082020636</v>
+        <v>1.69533706136276</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.871131519561465</v>
+        <v>1.736307104182012</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.549652221131404</v>
+        <v>1.685510775053611</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.473133679808666</v>
+        <v>1.688113629453023</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.481306464825138</v>
+        <v>1.58759707863071</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.368369142691636</v>
+        <v>1.479581003453585</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.620007582718844</v>
+        <v>1.37214075906214</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.403335844090433</v>
+        <v>1.726023703654811</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.569763846173005</v>
+        <v>1.402174006657169</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.424761589570988</v>
+        <v>1.597137474658308</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.386621704098483</v>
+        <v>1.563407507200439</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.247956185738263</v>
+        <v>1.713934916307645</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.494475204475225</v>
+        <v>1.550679244244649</v>
       </c>
     </row>
   </sheetData>
